--- a/apps/home/invest/movimentacao_todos_ativos_ajustado.xlsx
+++ b/apps/home/invest/movimentacao_todos_ativos_ajustado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Percentual</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>valor_ativo_atual</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>valor_ativo_total</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>compra_venda</t>
         </is>
@@ -493,32 +503,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELET3</t>
+          <t>VALE3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.25</v>
+        <v>69.94</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.75</v>
       </c>
-      <c r="H2" t="n">
-        <v>34.61</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2422.7</v>
-      </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>65.72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1971.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -533,28 +549,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.4</v>
+        <v>50.43</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>49.04</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2108.72</v>
-      </c>
       <c r="J3" t="n">
-        <v>43</v>
+        <v>58.35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2684.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -565,32 +587,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CEAB3</t>
+          <t>AMBP3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="D4" t="n">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.4</v>
+        <v>19.05</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2056</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>13.65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1801.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -601,32 +629,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMBP3</t>
+          <t>TASA4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>21.03</v>
+        <v>14.8</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.75</v>
       </c>
-      <c r="H5" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1318.35</v>
-      </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>14.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2046.92</v>
+      </c>
+      <c r="L5" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -637,32 +671,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SIMH3</t>
+          <t>TGMA3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.67</v>
+        <v>22.15</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1510.76</v>
-      </c>
       <c r="J6" t="n">
-        <v>211</v>
+        <v>25.67</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2361.64</v>
+      </c>
+      <c r="L6" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -673,32 +713,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TASA4</t>
+          <t>ELET3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>14.85</v>
+        <v>35.25</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1874.4</v>
-      </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>42.99</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3009.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -709,32 +755,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TGMA3</t>
+          <t>SIMH3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="D8" t="n">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.15</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2263.2</v>
-      </c>
       <c r="J8" t="n">
-        <v>92</v>
+        <v>7.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2022.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="9">
@@ -745,32 +797,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>CEAB3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>69.31999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1663.74</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>26</v>
+        <v>8.06</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3224</v>
+      </c>
+      <c r="L9" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -781,32 +839,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16.79</v>
+        <v>12.56</v>
       </c>
       <c r="D10" t="n">
-        <v>16.79</v>
+        <v>12.56</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>37.97</v>
+        <v>31.32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>56.94</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>956.02</v>
+        <v>0.25</v>
       </c>
       <c r="J10" t="n">
-        <v>16.79</v>
+        <v>38.03</v>
+      </c>
+      <c r="K10" t="n">
+        <v>477.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12.56</v>
       </c>
     </row>
     <row r="11">
@@ -817,32 +881,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>125013.66</v>
+        <v>8808.57</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>170738</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2344.23</v>
+        <v>0.75</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01</v>
+        <v>13959.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1430.83</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -853,32 +923,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.64</v>
+        <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>10.64</v>
+        <v>0.01</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>32.27</v>
+        <v>129429.56</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21.22</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>225.78</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>10.64</v>
+        <v>260634.68</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3857.39</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
@@ -889,32 +965,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.09</v>
+        <v>18.89</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09</v>
+        <v>18.89</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8655.17</v>
+        <v>41.67</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8991.93</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>832.65</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09</v>
+        <v>100.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1900.37</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18.89</v>
       </c>
     </row>
     <row r="14">
@@ -925,32 +1007,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CPTS11</t>
+          <t>LVBI11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.19</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1680</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>210</v>
+        <v>119</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1309</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -961,32 +1049,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HGLG11</t>
+          <t>VISC11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>162.93</v>
+        <v>104.1</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
-        <v>157.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1261.6</v>
-      </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>120.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1569.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -997,32 +1091,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PVBI11</t>
+          <t>XPML11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>86.76000000000001</v>
+        <v>97.45</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>105.65</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1901.7</v>
-      </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>118</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1888</v>
+      </c>
+      <c r="L16" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1033,32 +1133,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VISC11</t>
+          <t>HGLG11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>104.1</v>
+        <v>162.93</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>115.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1502.8</v>
-      </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>164.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1318</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1069,32 +1175,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRCO11</t>
+          <t>RBVA11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>93.01000000000001</v>
+        <v>111.24</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>123.91</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2106.47</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>113.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1358.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1105,32 +1217,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PORD11</t>
+          <t>PVBI11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>89.98999999999999</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>89.38</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1698.22</v>
-      </c>
       <c r="J19" t="n">
-        <v>19</v>
+        <v>102.99</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1853.82</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1141,32 +1259,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RBVA11</t>
+          <t>CPTS11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>111.24</v>
+        <v>8.16</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>111.38</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1336.56</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>8.539999999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2015.44</v>
+      </c>
+      <c r="L20" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -1177,32 +1301,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KFOF11</t>
+          <t>BRCR11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>75.3</v>
+        <v>54.64</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>94.83</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1327.62</v>
-      </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>59.48</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1249.08</v>
+      </c>
+      <c r="L21" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -1213,32 +1343,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LVBI11</t>
+          <t>PORD11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>92.98999999999999</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.17</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1288.87</v>
+        <v>1.75</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>91.93000000000001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2298.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1249,32 +1385,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XPML11</t>
+          <t>KFOF11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97.45</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1760</v>
+        <v>1.75</v>
       </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>101</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2323</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1285,31 +1427,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HGRU11</t>
+          <t>BRCO11</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>116</v>
+        <v>95.77</v>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>128.6</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1414.6</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
+        <v>125.48</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1380.28</v>
+      </c>
+      <c r="L24" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1321,32 +1469,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRCR11</t>
+          <t>HGRU11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>54.41</v>
+        <v>118.37</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="n">
-        <v>53.82</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1076.4</v>
-      </c>
       <c r="J25" t="n">
-        <v>20</v>
+        <v>137.91</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1517.01</v>
+      </c>
+      <c r="L25" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1357,32 +1511,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GARDE_PORTHOS_FIC_FIM</t>
+          <t>KINEA_ATLAS_II_FIM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2399.95</v>
+        <v>1749.72</v>
       </c>
       <c r="D26" t="n">
-        <v>2399.95</v>
+        <v>1749.72</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3159.3</v>
-      </c>
       <c r="J26" t="n">
-        <v>2399.95</v>
+        <v>2.19</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3836.91</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1749.72</v>
       </c>
     </row>
     <row r="27">
@@ -1393,32 +1553,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KINEA_ATLAS_II_FIM</t>
+          <t>GARDE_PORTHOS_FIC_FIM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1530.75</v>
+        <v>2399.95</v>
       </c>
       <c r="D27" t="n">
-        <v>1530.75</v>
+        <v>2399.95</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3220.43</v>
-      </c>
       <c r="J27" t="n">
-        <v>1530.75</v>
+        <v>1.38</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3300.62</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2399.95</v>
       </c>
     </row>
     <row r="28">
@@ -1445,15 +1611,21 @@
         <v>1.27</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3742.88</v>
-      </c>
       <c r="J28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4015.19</v>
+      </c>
+      <c r="L28" t="n">
         <v>2752.42</v>
       </c>
     </row>
@@ -1481,15 +1653,21 @@
         <v>1.35</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3412.83</v>
-      </c>
       <c r="J29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3577.95</v>
+      </c>
+      <c r="L29" t="n">
         <v>2468.6</v>
       </c>
     </row>
@@ -1501,32 +1679,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ALUG11</t>
+          <t>BLQD39</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>35.02</v>
+        <v>54.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>29.27</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2546.49</v>
+        <v>1.5</v>
       </c>
       <c r="J30" t="n">
-        <v>87</v>
+        <v>53.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1819</v>
+      </c>
+      <c r="L30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -1537,32 +1721,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WRLD11</t>
+          <t>USDB11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>81.58</v>
+        <v>82.31</v>
       </c>
       <c r="G31" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9383.4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>117</v>
+        <v>89.79000000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2514.12</v>
+      </c>
+      <c r="L31" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -1573,32 +1763,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GOLD11</t>
+          <t>WRLD11</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="D32" t="n">
-        <v>321</v>
+        <v>138</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F32" t="n">
-        <v>10.02</v>
+        <v>81.69</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3338.4</v>
+        <v>8.5</v>
       </c>
       <c r="J32" t="n">
-        <v>321</v>
+        <v>92.98</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11064.62</v>
+      </c>
+      <c r="L32" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1609,32 +1805,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BLQD39</t>
+          <t>BNDX11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>54.08</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>49.88</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1546.28</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>31</v>
+        <v>92.06999999999999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1288.98</v>
+      </c>
+      <c r="L33" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1645,32 +1847,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BNDX11</t>
+          <t>ALUG11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>86.11</v>
+        <v>34.75</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>88.42</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1149.46</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
-        <v>13</v>
+        <v>33.99</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3195.06</v>
+      </c>
+      <c r="L34" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -1681,32 +1889,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>USDB11</t>
+          <t>BHYG39</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>92.19</v>
+        <v>46.27</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>85.36</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2134</v>
+        <v>1.5</v>
       </c>
       <c r="J35" t="n">
-        <v>25</v>
+        <v>47.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1820.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -1717,32 +1931,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BHYG39</t>
+          <t>GOLD11</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>46.28</v>
+        <v>10.05</v>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>45.43</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1635.48</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>36</v>
+        <v>10.45</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3667.95</v>
+      </c>
+      <c r="L36" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="37">
@@ -1753,32 +1973,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GGBR4</t>
+          <t>BPAC11</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E37" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F37" t="n">
-        <v>27.27</v>
+        <v>20.88</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>21.55</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-43.1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-2</v>
+        <v>37.02</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1789,32 +2015,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tesouro Selic 2027</t>
+          <t>Tesouro IPCA+ 2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.49</v>
+        <v>0.16</v>
       </c>
       <c r="D38" t="n">
-        <v>7.05</v>
+        <v>0.16</v>
       </c>
       <c r="E38" t="n">
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>12270.26</v>
+        <v>3176.38</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>13932.35</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6826.85</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4900000000000002</v>
+        <v>3678.72</v>
+      </c>
+      <c r="K38" t="n">
+        <v>588.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="39">
@@ -1825,32 +2057,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tesouro IPCA+ 2026</t>
+          <t>Tesouro Selic 2027</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
       <c r="D39" t="n">
-        <v>0.16</v>
+        <v>7.05</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6.56</v>
       </c>
       <c r="F39" t="n">
-        <v>3176.38</v>
+        <v>12270.26</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3525.76</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>564.12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.16</v>
+        <v>14410.81</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7061.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4900000000000002</v>
       </c>
     </row>
     <row r="40">
@@ -1880,12 +2118,18 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34.03</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1897,32 +2141,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RBRF11</t>
+          <t>Tesouro Selic 2029</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>3.44</v>
       </c>
       <c r="E41" t="n">
-        <v>17</v>
+        <v>0.25</v>
       </c>
       <c r="F41" t="n">
-        <v>65.06999999999999</v>
+        <v>13350.48</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>76.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>14338.47</v>
+      </c>
+      <c r="K41" t="n">
+        <v>45739.72</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="42">
@@ -1933,31 +2183,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RANI3</t>
+          <t>KNCR11</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>9.640000000000001</v>
+        <v>98.92</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
+        <v>103.46</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1969,32 +2225,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tesouro Selic 2029</t>
+          <t>ITUB4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.75</v>
+        <v>61</v>
       </c>
       <c r="E43" t="n">
-        <v>0.25</v>
+        <v>61</v>
       </c>
       <c r="F43" t="n">
-        <v>12583.15</v>
+        <v>26</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13860.52</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>20790.78</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>34.29</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2005,31 +2267,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ARZZ3</t>
+          <t>PRIO3</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F44" t="n">
-        <v>74.15000000000001</v>
+        <v>37.34</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>60.52</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>42.55</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2041,31 +2309,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JSRE11</t>
+          <t>SQIA3</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E45" t="n">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F45" t="n">
-        <v>61.74</v>
+        <v>16.39</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>68.59</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2077,32 +2351,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PRIO3</t>
+          <t>GGBR4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D46" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F46" t="n">
-        <v>37.34</v>
+        <v>27.27</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>48.85</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>20.74</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-41.48</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="47">
@@ -2113,20 +2393,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tesouro Prefixado 2026</t>
+          <t>VIVT3</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>7.12</v>
+        <v>45</v>
       </c>
       <c r="E47" t="n">
-        <v>7.12</v>
+        <v>45</v>
       </c>
       <c r="F47" t="n">
-        <v>708.92</v>
+        <v>39.65</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2138,6 +2418,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>54.49</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2149,31 +2435,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SQIA3</t>
+          <t>TRPL4</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>16.39</v>
+        <v>24.31</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>27.15</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2185,32 +2477,38 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALUP11</t>
+          <t>ARZZ3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F49" t="n">
-        <v>27.49</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>28.43</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-28.43</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-1</v>
+        <v>58.78</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2221,31 +2519,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VIVT3</t>
+          <t>GUAR3</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="E50" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="F50" t="n">
-        <v>39.65</v>
+        <v>6.11</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>45.82</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,32 +2561,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRPL4</t>
+          <t>ALUP11</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F51" t="n">
-        <v>24.31</v>
+        <v>27.49</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>22.31</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>29.05</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-29.05</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -2293,7 +2603,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KNCR11</t>
+          <t>JSRE11</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2306,18 +2616,24 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>98.92</v>
+        <v>61.74</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>101.48</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2329,31 +2645,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>RANI3</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="E53" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="F53" t="n">
-        <v>26</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>26.99</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2365,31 +2687,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GUAR3</t>
+          <t>RBRF11</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>6.11</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2401,31 +2729,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BPAC11</t>
+          <t>Tesouro Prefixado 2026</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>71</v>
+        <v>7.12</v>
       </c>
       <c r="E55" t="n">
-        <v>71</v>
+        <v>7.12</v>
       </c>
       <c r="F55" t="n">
-        <v>20.88</v>
+        <v>708.92</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>30.86</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2437,32 +2771,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KDIF11</t>
+          <t>Tesouro IPCA+ 2045</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>15.45</v>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>15.45</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>125.33</v>
+        <v>1132.36</v>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>133.2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2797.2</v>
+        <v>7.5</v>
       </c>
       <c r="J56" t="n">
-        <v>21</v>
+        <v>1272.44</v>
+      </c>
+      <c r="K56" t="n">
+        <v>19659.2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>15.45</v>
       </c>
     </row>
     <row r="57">
@@ -2477,28 +2817,34 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D57" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>103.97</v>
+        <v>104.21</v>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>5</v>
       </c>
-      <c r="H57" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5586.2</v>
-      </c>
       <c r="J57" t="n">
-        <v>53</v>
+        <v>106.89</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6092.73</v>
+      </c>
+      <c r="L57" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
@@ -2509,32 +2855,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tesouro IPCA+ 2045</t>
+          <t>WA_IMAB5_ATIVO_FI_RF</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13.96</v>
+        <v>2136.63</v>
       </c>
       <c r="D58" t="n">
-        <v>13.96</v>
+        <v>2136.63</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1110.85</v>
+        <v>2.94</v>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>5</v>
       </c>
-      <c r="H58" t="n">
-        <v>1164.14</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16251.39</v>
-      </c>
       <c r="J58" t="n">
-        <v>13.96</v>
+        <v>2.96</v>
+      </c>
+      <c r="K58" t="n">
+        <v>6326.43</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2136.63</v>
       </c>
     </row>
     <row r="59">
@@ -2545,32 +2897,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WA_IMAB5_ATIVO_FI_RF</t>
+          <t>KDIF11</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2840.33</v>
+        <v>22</v>
       </c>
       <c r="D59" t="n">
-        <v>2840.33</v>
+        <v>22</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2.68</v>
+        <v>125.75</v>
       </c>
       <c r="G59" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>8079.07</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2840.33</v>
+        <v>139.02</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3058.44</v>
+      </c>
+      <c r="L59" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -2594,18 +2952,24 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>11637.64</v>
+        <v>13028</v>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>10</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>12021</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>12021</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,15 +2997,21 @@
         <v>13010.22</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>5</v>
       </c>
-      <c r="H61" t="n">
-        <v>13975.87</v>
-      </c>
-      <c r="I61" t="n">
-        <v>19426.46</v>
-      </c>
       <c r="J61" t="n">
+        <v>14446.77</v>
+      </c>
+      <c r="K61" t="n">
+        <v>20081.01</v>
+      </c>
+      <c r="L61" t="n">
         <v>1.39</v>
       </c>
     </row>

--- a/apps/home/invest/movimentacao_todos_ativos_ajustado.xlsx
+++ b/apps/home/invest/movimentacao_todos_ativos_ajustado.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -528,10 +528,10 @@
         <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>65.72</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>1971.6</v>
+        <v>1975.5</v>
       </c>
       <c r="L2" t="n">
         <v>30</v>
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>58.35</v>
+        <v>58.08</v>
       </c>
       <c r="K3" t="n">
-        <v>2684.1</v>
+        <v>2671.68</v>
       </c>
       <c r="L3" t="n">
         <v>46</v>
@@ -612,10 +612,10 @@
         <v>1.75</v>
       </c>
       <c r="J4" t="n">
-        <v>13.65</v>
+        <v>15.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1801.8</v>
+        <v>2046</v>
       </c>
       <c r="L4" t="n">
         <v>132</v>
@@ -654,10 +654,10 @@
         <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>14.02</v>
+        <v>14.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2046.92</v>
+        <v>2058.6</v>
       </c>
       <c r="L5" t="n">
         <v>146</v>
@@ -696,10 +696,10 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>25.67</v>
+        <v>26.59</v>
       </c>
       <c r="K6" t="n">
-        <v>2361.64</v>
+        <v>2446.28</v>
       </c>
       <c r="L6" t="n">
         <v>92</v>
@@ -738,10 +738,10 @@
         <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3009.3</v>
+        <v>3052</v>
       </c>
       <c r="L7" t="n">
         <v>70</v>
@@ -780,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>7.25</v>
+        <v>7.65</v>
       </c>
       <c r="K8" t="n">
-        <v>2022.75</v>
+        <v>2134.35</v>
       </c>
       <c r="L8" t="n">
         <v>279</v>
@@ -822,10 +822,10 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>8.06</v>
+        <v>9.59</v>
       </c>
       <c r="K9" t="n">
-        <v>3224</v>
+        <v>3836</v>
       </c>
       <c r="L9" t="n">
         <v>400</v>
@@ -864,10 +864,10 @@
         <v>0.25</v>
       </c>
       <c r="J10" t="n">
-        <v>38.03</v>
+        <v>46.39</v>
       </c>
       <c r="K10" t="n">
-        <v>477.7</v>
+        <v>582.61</v>
       </c>
       <c r="L10" t="n">
         <v>12.56</v>
@@ -906,10 +906,10 @@
         <v>0.75</v>
       </c>
       <c r="J11" t="n">
-        <v>13959.27</v>
+        <v>17655.84</v>
       </c>
       <c r="K11" t="n">
-        <v>1430.83</v>
+        <v>1809.72</v>
       </c>
       <c r="L11" t="n">
         <v>0.1</v>
@@ -948,10 +948,10 @@
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>260634.68</v>
+        <v>316532.39</v>
       </c>
       <c r="K12" t="n">
-        <v>3857.39</v>
+        <v>4684.68</v>
       </c>
       <c r="L12" t="n">
         <v>0.01</v>
@@ -990,10 +990,10 @@
         <v>0.5</v>
       </c>
       <c r="J13" t="n">
-        <v>100.6</v>
+        <v>94.22</v>
       </c>
       <c r="K13" t="n">
-        <v>1900.37</v>
+        <v>1779.76</v>
       </c>
       <c r="L13" t="n">
         <v>18.89</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>119</v>
+        <v>118.79</v>
       </c>
       <c r="K14" t="n">
-        <v>1309</v>
+        <v>1306.69</v>
       </c>
       <c r="L14" t="n">
         <v>11</v>
@@ -1074,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="K15" t="n">
-        <v>1569.1</v>
+        <v>1567.8</v>
       </c>
       <c r="L15" t="n">
         <v>13</v>
@@ -1116,10 +1116,10 @@
         <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>118</v>
+        <v>118.16</v>
       </c>
       <c r="K16" t="n">
-        <v>1888</v>
+        <v>1890.56</v>
       </c>
       <c r="L16" t="n">
         <v>16</v>
@@ -1158,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>164.75</v>
+        <v>168.6</v>
       </c>
       <c r="K17" t="n">
-        <v>1318</v>
+        <v>1348.8</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
@@ -1200,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>113.2</v>
+        <v>112.94</v>
       </c>
       <c r="K18" t="n">
-        <v>1358.4</v>
+        <v>1355.28</v>
       </c>
       <c r="L18" t="n">
         <v>12</v>
@@ -1242,10 +1242,10 @@
         <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>102.99</v>
+        <v>102.19</v>
       </c>
       <c r="K19" t="n">
-        <v>1853.82</v>
+        <v>1839.42</v>
       </c>
       <c r="L19" t="n">
         <v>18</v>
@@ -1284,10 +1284,10 @@
         <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>8.539999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="K20" t="n">
-        <v>2015.44</v>
+        <v>2010.72</v>
       </c>
       <c r="L20" t="n">
         <v>236</v>
@@ -1326,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>59.48</v>
+        <v>59.3</v>
       </c>
       <c r="K21" t="n">
-        <v>1249.08</v>
+        <v>1245.3</v>
       </c>
       <c r="L21" t="n">
         <v>21</v>
@@ -1368,10 +1368,10 @@
         <v>1.75</v>
       </c>
       <c r="J22" t="n">
-        <v>91.93000000000001</v>
+        <v>91.13</v>
       </c>
       <c r="K22" t="n">
-        <v>2298.25</v>
+        <v>2278.25</v>
       </c>
       <c r="L22" t="n">
         <v>25</v>
@@ -1410,10 +1410,10 @@
         <v>1.75</v>
       </c>
       <c r="J23" t="n">
-        <v>101</v>
+        <v>100.65</v>
       </c>
       <c r="K23" t="n">
-        <v>2323</v>
+        <v>2314.95</v>
       </c>
       <c r="L23" t="n">
         <v>23</v>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>125.48</v>
+        <v>122.98</v>
       </c>
       <c r="K24" t="n">
-        <v>1380.28</v>
+        <v>1352.78</v>
       </c>
       <c r="L24" t="n">
         <v>11</v>
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>137.91</v>
+        <v>135.96</v>
       </c>
       <c r="K25" t="n">
-        <v>1517.01</v>
+        <v>1495.56</v>
       </c>
       <c r="L25" t="n">
         <v>11</v>
@@ -1539,7 +1539,7 @@
         <v>2.19</v>
       </c>
       <c r="K26" t="n">
-        <v>3836.91</v>
+        <v>3838.9</v>
       </c>
       <c r="L26" t="n">
         <v>1749.72</v>
@@ -1581,7 +1581,7 @@
         <v>1.38</v>
       </c>
       <c r="K27" t="n">
-        <v>3300.62</v>
+        <v>3321.81</v>
       </c>
       <c r="L27" t="n">
         <v>2399.95</v>
@@ -1620,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="K28" t="n">
-        <v>4015.19</v>
+        <v>4040.17</v>
       </c>
       <c r="L28" t="n">
         <v>2752.42</v>
@@ -1665,7 +1665,7 @@
         <v>1.45</v>
       </c>
       <c r="K29" t="n">
-        <v>3577.95</v>
+        <v>3570.56</v>
       </c>
       <c r="L29" t="n">
         <v>2468.6</v>
@@ -1704,10 +1704,10 @@
         <v>1.5</v>
       </c>
       <c r="J30" t="n">
-        <v>53.5</v>
+        <v>53.68</v>
       </c>
       <c r="K30" t="n">
-        <v>1819</v>
+        <v>1825.12</v>
       </c>
       <c r="L30" t="n">
         <v>34</v>
@@ -1746,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>89.79000000000001</v>
+        <v>90.06</v>
       </c>
       <c r="K31" t="n">
-        <v>2514.12</v>
+        <v>2521.68</v>
       </c>
       <c r="L31" t="n">
         <v>28</v>
@@ -1788,10 +1788,10 @@
         <v>8.5</v>
       </c>
       <c r="J32" t="n">
-        <v>92.98</v>
+        <v>94.28</v>
       </c>
       <c r="K32" t="n">
-        <v>11064.62</v>
+        <v>11219.32</v>
       </c>
       <c r="L32" t="n">
         <v>119</v>
@@ -1830,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>92.06999999999999</v>
+        <v>91.97</v>
       </c>
       <c r="K33" t="n">
-        <v>1288.98</v>
+        <v>1287.58</v>
       </c>
       <c r="L33" t="n">
         <v>14</v>
@@ -1872,10 +1872,10 @@
         <v>2.5</v>
       </c>
       <c r="J34" t="n">
-        <v>33.99</v>
+        <v>34.75</v>
       </c>
       <c r="K34" t="n">
-        <v>3195.06</v>
+        <v>3266.5</v>
       </c>
       <c r="L34" t="n">
         <v>94</v>
@@ -1914,10 +1914,10 @@
         <v>1.5</v>
       </c>
       <c r="J35" t="n">
-        <v>47.9</v>
+        <v>47.65</v>
       </c>
       <c r="K35" t="n">
-        <v>1820.2</v>
+        <v>1810.7</v>
       </c>
       <c r="L35" t="n">
         <v>38</v>
@@ -1956,10 +1956,10 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>10.45</v>
+        <v>11.14</v>
       </c>
       <c r="K36" t="n">
-        <v>3667.95</v>
+        <v>3910.14</v>
       </c>
       <c r="L36" t="n">
         <v>351</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>37.02</v>
+        <v>35.55</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3678.72</v>
+        <v>3699.85</v>
       </c>
       <c r="K38" t="n">
-        <v>588.6</v>
+        <v>591.98</v>
       </c>
       <c r="L38" t="n">
         <v>0.16</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14410.81</v>
+        <v>14498.06</v>
       </c>
       <c r="K39" t="n">
-        <v>7061.3</v>
+        <v>7104.05</v>
       </c>
       <c r="L39" t="n">
         <v>0.4900000000000002</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.85</v>
+        <v>32.68</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14338.47</v>
+        <v>14425.36</v>
       </c>
       <c r="K41" t="n">
-        <v>45739.72</v>
+        <v>46016.9</v>
       </c>
       <c r="L41" t="n">
         <v>3.19</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>103.46</v>
+        <v>102.4</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.29</v>
+        <v>33.78</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>42.55</v>
+        <v>44.32</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.74</v>
+        <v>21.67</v>
       </c>
       <c r="K46" t="n">
-        <v>-41.48</v>
+        <v>-43.34</v>
       </c>
       <c r="L46" t="n">
         <v>-2</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>54.49</v>
+        <v>52.07</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>26.47</v>
+        <v>24.64</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>58.78</v>
+        <v>57.9</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.86</v>
+        <v>6.13</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>29.05</v>
+        <v>29.74</v>
       </c>
       <c r="K51" t="n">
-        <v>-29.05</v>
+        <v>-29.74</v>
       </c>
       <c r="L51" t="n">
         <v>-1</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>74.59999999999999</v>
+        <v>75.25</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>9.949999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>7.94</v>
+        <v>8.16</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>7.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1272.44</v>
+        <v>1265.72</v>
       </c>
       <c r="K56" t="n">
-        <v>19659.2</v>
+        <v>19555.37</v>
       </c>
       <c r="L56" t="n">
         <v>15.45</v>
@@ -2838,10 +2838,10 @@
         <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>106.89</v>
+        <v>106.04</v>
       </c>
       <c r="K57" t="n">
-        <v>6092.73</v>
+        <v>6044.28</v>
       </c>
       <c r="L57" t="n">
         <v>57</v>
@@ -2880,10 +2880,10 @@
         <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="K58" t="n">
-        <v>6326.43</v>
+        <v>6352.43</v>
       </c>
       <c r="L58" t="n">
         <v>2136.63</v>
@@ -2922,10 +2922,10 @@
         <v>2.5</v>
       </c>
       <c r="J59" t="n">
-        <v>139.02</v>
+        <v>138.2</v>
       </c>
       <c r="K59" t="n">
-        <v>3058.44</v>
+        <v>3040.4</v>
       </c>
       <c r="L59" t="n">
         <v>22</v>
@@ -2964,10 +2964,10 @@
         <v>10</v>
       </c>
       <c r="J60" t="n">
-        <v>12021</v>
+        <v>13589</v>
       </c>
       <c r="K60" t="n">
-        <v>12021</v>
+        <v>13589</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -3006,10 +3006,10 @@
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>14446.77</v>
+        <v>14535.12</v>
       </c>
       <c r="K61" t="n">
-        <v>20081.01</v>
+        <v>20203.82</v>
       </c>
       <c r="L61" t="n">
         <v>1.39</v>
